--- a/2021-03-14.xlsx
+++ b/2021-03-14.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F73F7-2D3F-48A5-A822-DCF5852DE112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2638B-C7D4-4019-A96E-D39F38816BDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_12.03.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_12.03." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_14.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_14.03." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_12.03.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_12.03.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_12.03.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_12.03.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_14.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_14.03.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_14.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_14.03.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>Bayern</t>
   </si>
@@ -229,16 +229,22 @@
     <t>-</t>
   </si>
   <si>
-    <t>Datenstand: 13.03.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 12.03.21 (Gesamt_bis_einschl_12.03.21)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 12.03.21 durchgeführt und bis zum 13.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
   <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 12.03.21 (Indik_bis_einschl_12.03.21)</t>
+    <t>Datenstand: 15.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 14.03.21 (Gesamt_bis_einschl_14.03.21)</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 14.03.21 (Indik_bis_einschl_14.03.21)</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen **</t>
+  </si>
+  <si>
+    <t>** Die Daten enthalten nachträgliche Korrekturen aus Nordrhein-Westfalen.</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1191,7 +1197,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1203,12 +1209,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1296,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1413,43 +1419,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="26">
-        <v>1183627</v>
+        <v>1243998</v>
       </c>
       <c r="D4" s="10">
-        <v>813088</v>
+        <v>858236</v>
       </c>
       <c r="E4" s="10">
-        <v>557021</v>
+        <v>576255</v>
       </c>
       <c r="F4" s="10">
-        <v>36354</v>
+        <v>36911</v>
       </c>
       <c r="G4" s="10">
-        <v>219713</v>
+        <v>245070</v>
       </c>
       <c r="H4" s="10">
-        <v>24673</v>
+        <v>21548</v>
       </c>
       <c r="I4" s="25">
-        <v>7.3248571176842914</v>
+        <v>7.7315814195424046</v>
       </c>
       <c r="J4" s="22">
-        <v>370539</v>
+        <v>385762</v>
       </c>
       <c r="K4" s="10">
-        <v>356888</v>
+        <v>371084</v>
       </c>
       <c r="L4" s="10">
-        <v>13649</v>
+        <v>14674</v>
       </c>
       <c r="M4" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" s="11">
-        <v>10735</v>
+        <v>6079</v>
       </c>
       <c r="O4" s="42">
-        <v>3.3380707027155974</v>
+        <v>3.4752099790331767</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1460,43 +1466,43 @@
         <v>0</v>
       </c>
       <c r="C5" s="27">
-        <v>1548393</v>
+        <v>1621834</v>
       </c>
       <c r="D5" s="15">
-        <v>1059729</v>
+        <v>1116691</v>
       </c>
       <c r="E5" s="15">
-        <v>773124</v>
+        <v>796237</v>
       </c>
       <c r="F5" s="15">
-        <v>43628</v>
+        <v>46883</v>
       </c>
       <c r="G5" s="15">
-        <v>242977</v>
+        <v>273571</v>
       </c>
       <c r="H5" s="16">
-        <v>35152</v>
+        <v>24869</v>
       </c>
       <c r="I5" s="17">
-        <v>8.0742875076277727</v>
+        <v>8.5082923947352249</v>
       </c>
       <c r="J5" s="23">
-        <v>488664</v>
+        <v>505143</v>
       </c>
       <c r="K5" s="15">
-        <v>476805</v>
+        <v>493264</v>
       </c>
       <c r="L5" s="15">
-        <v>11838</v>
+        <v>11853</v>
       </c>
       <c r="M5" s="15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N5" s="16">
-        <v>11702</v>
+        <v>6683</v>
       </c>
       <c r="O5" s="17">
-        <v>3.7232288921294194</v>
+        <v>3.8487856937628537</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1507,43 +1513,43 @@
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>407773</v>
+        <v>437312</v>
       </c>
       <c r="D6" s="10">
-        <v>268888</v>
+        <v>295039</v>
       </c>
       <c r="E6" s="10">
-        <v>209868</v>
+        <v>219692</v>
       </c>
       <c r="F6" s="10">
-        <v>15950</v>
+        <v>17951</v>
       </c>
       <c r="G6" s="10">
-        <v>43070</v>
+        <v>57396</v>
       </c>
       <c r="H6" s="11">
-        <v>8604</v>
+        <v>9153</v>
       </c>
       <c r="I6" s="12">
-        <v>7.3276647905663213</v>
+        <v>8.0403249387994133</v>
       </c>
       <c r="J6" s="22">
-        <v>138885</v>
+        <v>142273</v>
       </c>
       <c r="K6" s="10">
-        <v>134787</v>
+        <v>138149</v>
       </c>
       <c r="L6" s="10">
-        <v>4098</v>
+        <v>4124</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <v>1752</v>
+        <v>1623</v>
       </c>
       <c r="O6" s="12">
-        <v>3.784857354875649</v>
+        <v>3.877186236456228</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1554,43 +1560,43 @@
         <v>2</v>
       </c>
       <c r="C7" s="27">
-        <v>253167</v>
+        <v>261971</v>
       </c>
       <c r="D7" s="15">
-        <v>172734</v>
+        <v>181451</v>
       </c>
       <c r="E7" s="15">
-        <v>108246</v>
+        <v>112291</v>
       </c>
       <c r="F7" s="15">
-        <v>7950</v>
+        <v>8780</v>
       </c>
       <c r="G7" s="15">
-        <v>56538</v>
+        <v>60380</v>
       </c>
       <c r="H7" s="16">
-        <v>10120</v>
+        <v>61</v>
       </c>
       <c r="I7" s="17">
-        <v>6.8493786215354886</v>
+        <v>7.1950316686711133</v>
       </c>
       <c r="J7" s="23">
-        <v>80433</v>
+        <v>80520</v>
       </c>
       <c r="K7" s="15">
-        <v>76364</v>
+        <v>76448</v>
       </c>
       <c r="L7" s="15">
-        <v>4068</v>
+        <v>4071</v>
       </c>
       <c r="M7" s="15">
         <v>1</v>
       </c>
       <c r="N7" s="16">
-        <v>500</v>
+        <v>52</v>
       </c>
       <c r="O7" s="17">
-        <v>3.189389874986766</v>
+        <v>3.1928396644901271</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1601,31 +1607,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="26">
-        <v>82438</v>
+        <v>85720</v>
       </c>
       <c r="D8" s="10">
-        <v>57609</v>
+        <v>60139</v>
       </c>
       <c r="E8" s="10">
-        <v>37164</v>
+        <v>38137</v>
       </c>
       <c r="F8" s="10">
         <v>3037</v>
       </c>
       <c r="G8" s="10">
-        <v>17408</v>
+        <v>18965</v>
       </c>
       <c r="H8" s="11">
-        <v>1852</v>
+        <v>903</v>
       </c>
       <c r="I8" s="12">
-        <v>8.4569628392165619</v>
+        <v>8.8283651545356587</v>
       </c>
       <c r="J8" s="22">
-        <v>24829</v>
+        <v>25581</v>
       </c>
       <c r="K8" s="10">
-        <v>23519</v>
+        <v>24271</v>
       </c>
       <c r="L8" s="10">
         <v>1310</v>
@@ -1634,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="11">
-        <v>480</v>
+        <v>269</v>
       </c>
       <c r="O8" s="12">
-        <v>3.6448806668212952</v>
+        <v>3.7552737660781972</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1648,43 +1654,43 @@
         <v>5</v>
       </c>
       <c r="C9" s="27">
-        <v>211810</v>
+        <v>222122</v>
       </c>
       <c r="D9" s="15">
-        <v>144087</v>
+        <v>151821</v>
       </c>
       <c r="E9" s="15">
-        <v>96800</v>
+        <v>99697</v>
       </c>
       <c r="F9" s="15">
-        <v>5915</v>
+        <v>6773</v>
       </c>
       <c r="G9" s="15">
-        <v>41372</v>
+        <v>45351</v>
       </c>
       <c r="H9" s="16">
-        <v>4137</v>
+        <v>3564</v>
       </c>
       <c r="I9" s="17">
-        <v>7.8000685341964529</v>
+        <v>8.2187442651331466</v>
       </c>
       <c r="J9" s="23">
-        <v>67723</v>
+        <v>70301</v>
       </c>
       <c r="K9" s="15">
-        <v>66133</v>
+        <v>68710</v>
       </c>
       <c r="L9" s="15">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="M9" s="15">
         <v>0</v>
       </c>
       <c r="N9" s="16">
-        <v>1322</v>
+        <v>1369</v>
       </c>
       <c r="O9" s="17">
-        <v>3.6661464347330877</v>
+        <v>3.8057050117119848</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1695,43 +1701,43 @@
         <v>15</v>
       </c>
       <c r="C10" s="26">
-        <v>668297</v>
+        <v>707427</v>
       </c>
       <c r="D10" s="10">
-        <v>467388</v>
+        <v>498552</v>
       </c>
       <c r="E10" s="10">
-        <v>352609</v>
+        <v>366593</v>
       </c>
       <c r="F10" s="10">
-        <v>16506</v>
+        <v>17256</v>
       </c>
       <c r="G10" s="10">
-        <v>98273</v>
+        <v>114703</v>
       </c>
       <c r="H10" s="11">
-        <v>17936</v>
+        <v>14849</v>
       </c>
       <c r="I10" s="12">
-        <v>7.4329207007544431</v>
+        <v>7.9285250823780862</v>
       </c>
       <c r="J10" s="22">
-        <v>200909</v>
+        <v>208875</v>
       </c>
       <c r="K10" s="10">
-        <v>197697</v>
+        <v>205437</v>
       </c>
       <c r="L10" s="10">
-        <v>3173</v>
+        <v>3395</v>
       </c>
       <c r="M10" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N10" s="11">
-        <v>5465</v>
+        <v>3530</v>
       </c>
       <c r="O10" s="12">
-        <v>3.1950770346433255</v>
+        <v>3.3217611735219656</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1742,25 +1748,25 @@
         <v>6</v>
       </c>
       <c r="C11" s="28">
-        <v>172825</v>
+        <v>174037</v>
       </c>
       <c r="D11" s="15">
-        <v>115342</v>
+        <v>116554</v>
       </c>
       <c r="E11" s="15">
-        <v>90994</v>
+        <v>90996</v>
       </c>
       <c r="F11" s="15">
-        <v>6321</v>
+        <v>6320</v>
       </c>
       <c r="G11" s="15">
-        <v>18027</v>
+        <v>19238</v>
       </c>
       <c r="H11" s="16">
-        <v>5781</v>
+        <v>0</v>
       </c>
       <c r="I11" s="17">
-        <v>7.1723944089375404</v>
+        <v>7.2477610752311055</v>
       </c>
       <c r="J11" s="23">
         <v>57483</v>
@@ -1775,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="16">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="O11" s="17">
         <v>3.5745066654727395</v>
@@ -1789,43 +1795,43 @@
         <v>7</v>
       </c>
       <c r="C12" s="26">
-        <v>808529</v>
+        <v>830323</v>
       </c>
       <c r="D12" s="10">
-        <v>559283</v>
+        <v>577494</v>
       </c>
       <c r="E12" s="10">
-        <v>419677</v>
+        <v>422980</v>
       </c>
       <c r="F12" s="10">
-        <v>19655</v>
+        <v>19965</v>
       </c>
       <c r="G12" s="10">
-        <v>119951</v>
+        <v>134549</v>
       </c>
       <c r="H12" s="11">
-        <v>16505</v>
+        <v>3614</v>
       </c>
       <c r="I12" s="12">
-        <v>6.9966278056166882</v>
+        <v>7.2244473334194019</v>
       </c>
       <c r="J12" s="22">
-        <v>249246</v>
+        <v>252829</v>
       </c>
       <c r="K12" s="10">
-        <v>245207</v>
+        <v>248243</v>
       </c>
       <c r="L12" s="10">
-        <v>4039</v>
+        <v>4586</v>
       </c>
       <c r="M12" s="10">
         <v>0</v>
       </c>
       <c r="N12" s="11">
-        <v>11486</v>
+        <v>439</v>
       </c>
       <c r="O12" s="12">
-        <v>3.1180663350016662</v>
+        <v>3.1628896488294145</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1833,46 +1839,46 @@
         <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C13" s="27">
-        <v>1716225</v>
+        <v>1937317</v>
       </c>
       <c r="D13" s="15">
-        <v>1201981</v>
+        <v>1343693</v>
       </c>
       <c r="E13" s="15">
-        <v>851201</v>
+        <v>968456</v>
       </c>
       <c r="F13" s="15">
-        <v>28352</v>
+        <v>29142</v>
       </c>
       <c r="G13" s="15">
-        <v>322428</v>
+        <v>346095</v>
       </c>
       <c r="H13" s="16">
-        <v>22562</v>
+        <v>28631</v>
       </c>
       <c r="I13" s="17">
-        <v>6.697309850923439</v>
+        <v>7.4869139907509918</v>
       </c>
       <c r="J13" s="23">
-        <v>514244</v>
+        <v>593624</v>
       </c>
       <c r="K13" s="15">
-        <v>502393</v>
+        <v>579865</v>
       </c>
       <c r="L13" s="15">
-        <v>11769</v>
+        <v>13638</v>
       </c>
       <c r="M13" s="15">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="N13" s="16">
-        <v>11191</v>
+        <v>9468</v>
       </c>
       <c r="O13" s="17">
-        <v>2.8653126854569853</v>
+        <v>3.3076095736493132</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1883,31 +1889,31 @@
         <v>12</v>
       </c>
       <c r="C14" s="26">
-        <v>472894</v>
+        <v>479515</v>
       </c>
       <c r="D14" s="10">
-        <v>329055</v>
+        <v>335544</v>
       </c>
       <c r="E14" s="10">
-        <v>213540</v>
+        <v>214110</v>
       </c>
       <c r="F14" s="10">
         <v>4573</v>
       </c>
       <c r="G14" s="10">
-        <v>110942</v>
+        <v>116861</v>
       </c>
       <c r="H14" s="11">
-        <v>12333</v>
+        <v>293</v>
       </c>
       <c r="I14" s="12">
-        <v>8.0376843320420637</v>
+        <v>8.1961883317704398</v>
       </c>
       <c r="J14" s="22">
-        <v>143839</v>
+        <v>143971</v>
       </c>
       <c r="K14" s="10">
-        <v>139954</v>
+        <v>140086</v>
       </c>
       <c r="L14" s="10">
         <v>3885</v>
@@ -1916,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="11">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="O14" s="12">
-        <v>3.513493114028349</v>
+        <v>3.5167174210038685</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1930,31 +1936,31 @@
         <v>13</v>
       </c>
       <c r="C15" s="27">
-        <v>115373</v>
+        <v>118742</v>
       </c>
       <c r="D15" s="15">
-        <v>83608</v>
+        <v>85970</v>
       </c>
       <c r="E15" s="15">
-        <v>57228</v>
+        <v>58333</v>
       </c>
       <c r="F15" s="15">
-        <v>3217</v>
+        <v>3390</v>
       </c>
       <c r="G15" s="15">
-        <v>23163</v>
+        <v>24247</v>
       </c>
       <c r="H15" s="16">
-        <v>2778</v>
+        <v>0</v>
       </c>
       <c r="I15" s="17">
-        <v>8.4718919187303108</v>
+        <v>8.7112303637599844</v>
       </c>
       <c r="J15" s="23">
-        <v>31765</v>
+        <v>32772</v>
       </c>
       <c r="K15" s="15">
-        <v>30446</v>
+        <v>31453</v>
       </c>
       <c r="L15" s="15">
         <v>1319</v>
@@ -1963,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="16">
-        <v>1019</v>
+        <v>0</v>
       </c>
       <c r="O15" s="17">
-        <v>3.2187069036272642</v>
+        <v>3.3207449282440646</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1977,43 +1983,43 @@
         <v>9</v>
       </c>
       <c r="C16" s="26">
-        <v>433217</v>
+        <v>454151</v>
       </c>
       <c r="D16" s="10">
-        <v>303146</v>
+        <v>313493</v>
       </c>
       <c r="E16" s="10">
-        <v>258048</v>
+        <v>261632</v>
       </c>
       <c r="F16" s="10">
-        <v>13189</v>
+        <v>14053</v>
       </c>
       <c r="G16" s="10">
-        <v>31909</v>
+        <v>37808</v>
       </c>
       <c r="H16" s="11">
-        <v>6812</v>
+        <v>5212</v>
       </c>
       <c r="I16" s="12">
-        <v>7.4446993851380565</v>
+        <v>7.6988023735925433</v>
       </c>
       <c r="J16" s="22">
-        <v>130071</v>
+        <v>140658</v>
       </c>
       <c r="K16" s="10">
-        <v>128046</v>
+        <v>138467</v>
       </c>
       <c r="L16" s="10">
-        <v>2025</v>
+        <v>2191</v>
       </c>
       <c r="M16" s="10">
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>4639</v>
+        <v>5512</v>
       </c>
       <c r="O16" s="12">
-        <v>3.1943007452656222</v>
+        <v>3.4542976853224152</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2024,31 +2030,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="27">
-        <v>219171</v>
+        <v>223984</v>
       </c>
       <c r="D17" s="15">
-        <v>150775</v>
+        <v>155562</v>
       </c>
       <c r="E17" s="15">
-        <v>104550</v>
+        <v>104850</v>
       </c>
       <c r="F17" s="15">
-        <v>7927</v>
+        <v>8020</v>
       </c>
       <c r="G17" s="15">
-        <v>38298</v>
+        <v>42692</v>
       </c>
       <c r="H17" s="16">
-        <v>7297</v>
+        <v>1647</v>
       </c>
       <c r="I17" s="17">
-        <v>6.8697027768589312</v>
+        <v>7.0878109989967113</v>
       </c>
       <c r="J17" s="23">
-        <v>68396</v>
+        <v>68422</v>
       </c>
       <c r="K17" s="15">
-        <v>66702</v>
+        <v>66728</v>
       </c>
       <c r="L17" s="15">
         <v>1694</v>
@@ -2057,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="16">
-        <v>1691</v>
+        <v>6</v>
       </c>
       <c r="O17" s="17">
-        <v>3.1163003888313283</v>
+        <v>3.1174850167351473</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -2071,43 +2077,43 @@
         <v>11</v>
       </c>
       <c r="C18" s="26">
-        <v>323156</v>
+        <v>337032</v>
       </c>
       <c r="D18" s="10">
-        <v>224345</v>
+        <v>237985</v>
       </c>
       <c r="E18" s="10">
-        <v>162209</v>
+        <v>167744</v>
       </c>
       <c r="F18" s="10">
-        <v>7423</v>
+        <v>8337</v>
       </c>
       <c r="G18" s="10">
-        <v>54713</v>
+        <v>61904</v>
       </c>
       <c r="H18" s="11">
-        <v>8846</v>
+        <v>5975</v>
       </c>
       <c r="I18" s="12">
-        <v>7.7259827128360241</v>
+        <v>8.195716400696611</v>
       </c>
       <c r="J18" s="22">
-        <v>98811</v>
+        <v>99047</v>
       </c>
       <c r="K18" s="10">
-        <v>96821</v>
+        <v>96948</v>
       </c>
       <c r="L18" s="10">
-        <v>1983</v>
+        <v>2087</v>
       </c>
       <c r="M18" s="10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N18" s="11">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="O18" s="12">
-        <v>3.4028486386504726</v>
+        <v>3.4109759957131636</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -2118,31 +2124,31 @@
         <v>14</v>
       </c>
       <c r="C19" s="27">
-        <v>246375</v>
+        <v>263625</v>
       </c>
       <c r="D19" s="15">
-        <v>162426</v>
+        <v>178935</v>
       </c>
       <c r="E19" s="15">
-        <v>121656</v>
+        <v>121941</v>
       </c>
       <c r="F19" s="15">
         <v>8314</v>
       </c>
       <c r="G19" s="15">
-        <v>32456</v>
+        <v>48680</v>
       </c>
       <c r="H19" s="16">
-        <v>4999</v>
+        <v>7829</v>
       </c>
       <c r="I19" s="17">
-        <v>7.6135593411012961</v>
+        <v>8.3874025137598682</v>
       </c>
       <c r="J19" s="23">
-        <v>83949</v>
+        <v>84690</v>
       </c>
       <c r="K19" s="15">
-        <v>81271</v>
+        <v>82012</v>
       </c>
       <c r="L19" s="15">
         <v>2678</v>
@@ -2151,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="16">
-        <v>2596</v>
+        <v>0</v>
       </c>
       <c r="O19" s="17">
-        <v>3.935026985372494</v>
+        <v>3.9697606331367439</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -2206,43 +2212,43 @@
         <v>19</v>
       </c>
       <c r="C21" s="46">
-        <v>8863270</v>
+        <v>9399110</v>
       </c>
       <c r="D21" s="44">
-        <v>6113484</v>
+        <v>6507159</v>
       </c>
       <c r="E21" s="44">
-        <v>4413935</v>
+        <v>4619944</v>
       </c>
       <c r="F21" s="44">
-        <v>228311</v>
+        <v>239705</v>
       </c>
       <c r="G21" s="44">
-        <v>1471238</v>
+        <v>1647510</v>
       </c>
       <c r="H21" s="44">
-        <v>190387</v>
+        <v>128148</v>
       </c>
       <c r="I21" s="47">
-        <v>7.3508786466258123</v>
+        <v>7.8242351077223677</v>
       </c>
       <c r="J21" s="48">
-        <v>2749786</v>
+        <v>2891951</v>
       </c>
       <c r="K21" s="44">
-        <v>2679147</v>
+        <v>2817279</v>
       </c>
       <c r="L21" s="44">
-        <v>70477</v>
+        <v>74455</v>
       </c>
       <c r="M21" s="44">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="N21" s="44">
-        <v>65741</v>
+        <v>35097</v>
       </c>
       <c r="O21" s="47">
-        <v>3.3063541493182287</v>
+        <v>3.4772939379555363</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2268,6 +2274,11 @@
       <c r="M24" s="56"/>
       <c r="N24" s="56"/>
       <c r="O24" s="56"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="24"/>
@@ -2300,7 +2311,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2373,28 +2384,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>385183</v>
+        <v>400288</v>
       </c>
       <c r="D3" s="11">
-        <v>352656</v>
+        <v>375036</v>
       </c>
       <c r="E3" s="11">
-        <v>39353</v>
+        <v>45309</v>
       </c>
       <c r="F3" s="14">
-        <v>89171</v>
+        <v>90107</v>
       </c>
       <c r="G3" s="13">
-        <v>217328</v>
+        <v>228660</v>
       </c>
       <c r="H3" s="11">
-        <v>127851</v>
+        <v>131041</v>
       </c>
       <c r="I3" s="11">
-        <v>8434</v>
+        <v>8639</v>
       </c>
       <c r="J3" s="14">
-        <v>69088</v>
+        <v>70464</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2405,28 +2416,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>464708</v>
+        <v>494119</v>
       </c>
       <c r="D4" s="16">
-        <v>474324</v>
+        <v>497048</v>
       </c>
       <c r="E4" s="16">
-        <v>68403</v>
+        <v>75363</v>
       </c>
       <c r="F4" s="18">
-        <v>130042</v>
+        <v>130930</v>
       </c>
       <c r="G4" s="19">
-        <v>200355</v>
+        <v>213169</v>
       </c>
       <c r="H4" s="16">
-        <v>224704</v>
+        <v>227553</v>
       </c>
       <c r="I4" s="16">
-        <v>12556</v>
+        <v>13193</v>
       </c>
       <c r="J4" s="18">
-        <v>103029</v>
+        <v>103776</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2437,28 +2448,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>187410</v>
+        <v>200279</v>
       </c>
       <c r="D5" s="11">
-        <v>85398</v>
+        <v>100193</v>
       </c>
       <c r="E5" s="11">
         <v>150</v>
       </c>
       <c r="F5" s="14">
-        <v>44202</v>
+        <v>44375</v>
       </c>
       <c r="G5" s="13">
-        <v>104746</v>
+        <v>107424</v>
       </c>
       <c r="H5" s="11">
-        <v>32314</v>
+        <v>33146</v>
       </c>
       <c r="I5" s="11">
         <v>30</v>
       </c>
       <c r="J5" s="14">
-        <v>38514</v>
+        <v>38865</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2469,28 +2480,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>70320</v>
+        <v>75063</v>
       </c>
       <c r="D6" s="16">
-        <v>88484</v>
+        <v>91273</v>
       </c>
       <c r="E6" s="16">
-        <v>12435</v>
+        <v>13788</v>
       </c>
       <c r="F6" s="18">
-        <v>24265</v>
+        <v>24687</v>
       </c>
       <c r="G6" s="19">
-        <v>37210</v>
+        <v>37249</v>
       </c>
       <c r="H6" s="16">
-        <v>41567</v>
+        <v>41613</v>
       </c>
       <c r="I6" s="16">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="J6" s="18">
-        <v>17608</v>
+        <v>17647</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2501,28 +2512,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>23818</v>
+        <v>24673</v>
       </c>
       <c r="D7" s="11">
-        <v>28759</v>
+        <v>30308</v>
       </c>
       <c r="E7" s="11">
-        <v>1327</v>
+        <v>1371</v>
       </c>
       <c r="F7" s="14">
-        <v>8495</v>
+        <v>8602</v>
       </c>
       <c r="G7" s="13">
-        <v>12337</v>
+        <v>12902</v>
       </c>
       <c r="H7" s="11">
-        <v>9403</v>
+        <v>9573</v>
       </c>
       <c r="I7" s="11">
         <v>178</v>
       </c>
       <c r="J7" s="14">
-        <v>7134</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2533,28 +2544,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="19">
-        <v>59778</v>
+        <v>62861</v>
       </c>
       <c r="D8" s="16">
-        <v>75737</v>
+        <v>79789</v>
       </c>
       <c r="E8" s="16">
-        <v>3422</v>
+        <v>4020</v>
       </c>
       <c r="F8" s="18">
-        <v>15979</v>
+        <v>15991</v>
       </c>
       <c r="G8" s="19">
-        <v>30485</v>
+        <v>32464</v>
       </c>
       <c r="H8" s="16">
-        <v>33522</v>
+        <v>34064</v>
       </c>
       <c r="I8" s="16">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="J8" s="18">
-        <v>12878</v>
+        <v>12940</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2565,28 +2576,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="13">
-        <v>209437</v>
+        <v>217885</v>
       </c>
       <c r="D9" s="11">
-        <v>194138</v>
+        <v>207488</v>
       </c>
       <c r="E9" s="11">
-        <v>28661</v>
+        <v>34031</v>
       </c>
       <c r="F9" s="14">
-        <v>51986</v>
+        <v>52416</v>
       </c>
       <c r="G9" s="13">
-        <v>106282</v>
+        <v>112597</v>
       </c>
       <c r="H9" s="11">
-        <v>75416</v>
+        <v>76945</v>
       </c>
       <c r="I9" s="11">
-        <v>9118</v>
+        <v>9656</v>
       </c>
       <c r="J9" s="14">
-        <v>37289</v>
+        <v>37480</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2600,10 +2611,10 @@
         <v>41295</v>
       </c>
       <c r="D10" s="16">
-        <v>48187</v>
+        <v>49366</v>
       </c>
       <c r="E10" s="16">
-        <v>3145</v>
+        <v>3170</v>
       </c>
       <c r="F10" s="18">
         <v>26610</v>
@@ -2629,28 +2640,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>266223</v>
+        <v>269508</v>
       </c>
       <c r="D11" s="11">
-        <v>226813</v>
+        <v>241162</v>
       </c>
       <c r="E11" s="11">
-        <v>52177</v>
+        <v>53465</v>
       </c>
       <c r="F11" s="14">
-        <v>98246</v>
+        <v>98426</v>
       </c>
       <c r="G11" s="13">
-        <v>98480</v>
+        <v>101306</v>
       </c>
       <c r="H11" s="11">
-        <v>102628</v>
+        <v>103288</v>
       </c>
       <c r="I11" s="11">
-        <v>30851</v>
+        <v>30932</v>
       </c>
       <c r="J11" s="14">
-        <v>82214</v>
+        <v>82476</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2661,28 +2672,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="19">
-        <v>478591</v>
+        <v>482273</v>
       </c>
       <c r="D12" s="16">
-        <v>644240</v>
+        <v>723149</v>
       </c>
       <c r="E12" s="16">
-        <v>27263</v>
+        <v>26100</v>
       </c>
       <c r="F12" s="18">
-        <v>154818</v>
+        <v>191827</v>
       </c>
       <c r="G12" s="19">
-        <v>185363</v>
+        <v>182859</v>
       </c>
       <c r="H12" s="16">
-        <v>271654</v>
+        <v>312708</v>
       </c>
       <c r="I12" s="16">
-        <v>16949</v>
+        <v>15155</v>
       </c>
       <c r="J12" s="18">
-        <v>126597</v>
+        <v>151297</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2693,28 +2704,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>112869</v>
+        <v>113297</v>
       </c>
       <c r="D13" s="11">
-        <v>171980</v>
+        <v>177842</v>
       </c>
       <c r="E13" s="11">
-        <v>7686</v>
+        <v>7810</v>
       </c>
       <c r="F13" s="14">
-        <v>36520</v>
+        <v>36595</v>
       </c>
       <c r="G13" s="13">
-        <v>52750</v>
+        <v>52877</v>
       </c>
       <c r="H13" s="11">
-        <v>58703</v>
+        <v>58707</v>
       </c>
       <c r="I13" s="11">
         <v>97</v>
       </c>
       <c r="J13" s="14">
-        <v>32289</v>
+        <v>32290</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2725,25 +2736,25 @@
         <v>13</v>
       </c>
       <c r="C14" s="19">
-        <v>45719</v>
+        <v>46692</v>
       </c>
       <c r="D14" s="16">
-        <v>30636</v>
+        <v>31493</v>
       </c>
       <c r="E14" s="16">
-        <v>2836</v>
+        <v>3106</v>
       </c>
       <c r="F14" s="18">
-        <v>11164</v>
+        <v>11420</v>
       </c>
       <c r="G14" s="19">
-        <v>20644</v>
+        <v>21429</v>
       </c>
       <c r="H14" s="16">
-        <v>7713</v>
+        <v>7932</v>
       </c>
       <c r="I14" s="16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J14" s="18">
         <v>9608</v>
@@ -2757,28 +2768,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="13">
-        <v>121524</v>
+        <v>124235</v>
       </c>
       <c r="D15" s="11">
-        <v>116842</v>
+        <v>120387</v>
       </c>
       <c r="E15" s="11">
-        <v>17551</v>
+        <v>19500</v>
       </c>
       <c r="F15" s="14">
         <v>33995</v>
       </c>
       <c r="G15" s="13">
-        <v>51882</v>
+        <v>59695</v>
       </c>
       <c r="H15" s="11">
-        <v>53667</v>
+        <v>55222</v>
       </c>
       <c r="I15" s="11">
-        <v>8306</v>
+        <v>8696</v>
       </c>
       <c r="J15" s="14">
-        <v>20945</v>
+        <v>21563</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2789,22 +2800,22 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>59469</v>
+        <v>60501</v>
       </c>
       <c r="D16" s="16">
-        <v>71670</v>
+        <v>74941</v>
       </c>
       <c r="E16" s="16">
-        <v>7681</v>
+        <v>8165</v>
       </c>
       <c r="F16" s="18">
-        <v>32579</v>
+        <v>32580</v>
       </c>
       <c r="G16" s="19">
-        <v>26770</v>
+        <v>26776</v>
       </c>
       <c r="H16" s="16">
-        <v>32238</v>
+        <v>32258</v>
       </c>
       <c r="I16" s="16">
         <v>3561</v>
@@ -2821,28 +2832,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <v>97726</v>
+        <v>104969</v>
       </c>
       <c r="D17" s="11">
-        <v>95635</v>
+        <v>100811</v>
       </c>
       <c r="E17" s="11">
-        <v>10915</v>
+        <v>12136</v>
       </c>
       <c r="F17" s="14">
-        <v>55985</v>
+        <v>56175</v>
       </c>
       <c r="G17" s="13">
-        <v>41698</v>
+        <v>41736</v>
       </c>
       <c r="H17" s="11">
-        <v>37000</v>
+        <v>37155</v>
       </c>
       <c r="I17" s="11">
-        <v>8877</v>
+        <v>8897</v>
       </c>
       <c r="J17" s="14">
-        <v>42455</v>
+        <v>42502</v>
       </c>
       <c r="K17" s="32"/>
     </row>
@@ -2854,28 +2865,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <v>79691</v>
+        <v>84422</v>
       </c>
       <c r="D18" s="16">
-        <v>67736</v>
+        <v>73507</v>
       </c>
       <c r="E18" s="16">
-        <v>10526</v>
+        <v>16519</v>
       </c>
       <c r="F18" s="18">
-        <v>25435</v>
+        <v>25963</v>
       </c>
       <c r="G18" s="16">
-        <v>44753</v>
+        <v>45144</v>
       </c>
       <c r="H18" s="16">
-        <v>33175</v>
+        <v>33442</v>
       </c>
       <c r="I18" s="16">
-        <v>3794</v>
+        <v>3825</v>
       </c>
       <c r="J18" s="18">
-        <v>16225</v>
+        <v>16644</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -2914,28 +2925,28 @@
         <v>19</v>
       </c>
       <c r="C20" s="49">
-        <v>2703761</v>
+        <v>2802360</v>
       </c>
       <c r="D20" s="50">
-        <v>2773235</v>
+        <v>2973793</v>
       </c>
       <c r="E20" s="50">
-        <v>293531</v>
+        <v>324003</v>
       </c>
       <c r="F20" s="51">
-        <v>839492</v>
+        <v>880699</v>
       </c>
       <c r="G20" s="49">
-        <v>1245921</v>
+        <v>1291125</v>
       </c>
       <c r="H20" s="50">
-        <v>1168147</v>
+        <v>1221239</v>
       </c>
       <c r="I20" s="50">
-        <v>105055</v>
+        <v>105188</v>
       </c>
       <c r="J20" s="51">
-        <v>653667</v>
+        <v>682504</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2990,7 +3001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3019,13 +3032,13 @@
         <v>44192</v>
       </c>
       <c r="B2" s="33">
-        <v>21257</v>
+        <v>23569</v>
       </c>
       <c r="C2" s="33">
         <v>0</v>
       </c>
       <c r="D2" s="33">
-        <v>21257</v>
+        <v>23569</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3033,13 +3046,13 @@
         <v>44193</v>
       </c>
       <c r="B3" s="33">
-        <v>18754</v>
+        <v>18740</v>
       </c>
       <c r="C3" s="33">
         <v>0</v>
       </c>
       <c r="D3" s="33">
-        <v>18754</v>
+        <v>18740</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3047,13 +3060,13 @@
         <v>44194</v>
       </c>
       <c r="B4" s="33">
-        <v>43668</v>
+        <v>42652</v>
       </c>
       <c r="C4" s="33">
         <v>0</v>
       </c>
       <c r="D4" s="33">
-        <v>43668</v>
+        <v>42652</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3061,13 +3074,13 @@
         <v>44195</v>
       </c>
       <c r="B5" s="33">
-        <v>59620</v>
+        <v>58002</v>
       </c>
       <c r="C5" s="33">
         <v>0</v>
       </c>
       <c r="D5" s="33">
-        <v>59620</v>
+        <v>58002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3075,13 +3088,13 @@
         <v>44196</v>
       </c>
       <c r="B6" s="33">
-        <v>42117</v>
+        <v>38617</v>
       </c>
       <c r="C6" s="33">
         <v>0</v>
       </c>
       <c r="D6" s="33">
-        <v>42117</v>
+        <v>38617</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3089,13 +3102,13 @@
         <v>44197</v>
       </c>
       <c r="B7" s="33">
-        <v>19151</v>
+        <v>24750</v>
       </c>
       <c r="C7" s="33">
         <v>0</v>
       </c>
       <c r="D7" s="33">
-        <v>19151</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3103,13 +3116,13 @@
         <v>44198</v>
       </c>
       <c r="B8" s="33">
-        <v>52143</v>
+        <v>52182</v>
       </c>
       <c r="C8" s="33">
         <v>0</v>
       </c>
       <c r="D8" s="33">
-        <v>52143</v>
+        <v>52182</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3117,13 +3130,13 @@
         <v>44199</v>
       </c>
       <c r="B9" s="33">
-        <v>24072</v>
+        <v>24986</v>
       </c>
       <c r="C9" s="33">
         <v>0</v>
       </c>
       <c r="D9" s="33">
-        <v>24072</v>
+        <v>24986</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3131,13 +3144,13 @@
         <v>44200</v>
       </c>
       <c r="B10" s="33">
-        <v>48156</v>
+        <v>48686</v>
       </c>
       <c r="C10" s="33">
         <v>0</v>
       </c>
       <c r="D10" s="33">
-        <v>48156</v>
+        <v>48686</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3145,13 +3158,13 @@
         <v>44201</v>
       </c>
       <c r="B11" s="33">
-        <v>53763</v>
+        <v>52458</v>
       </c>
       <c r="C11" s="33">
         <v>0</v>
       </c>
       <c r="D11" s="33">
-        <v>53763</v>
+        <v>52458</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3159,13 +3172,13 @@
         <v>44202</v>
       </c>
       <c r="B12" s="33">
-        <v>62456</v>
+        <v>59170</v>
       </c>
       <c r="C12" s="33">
         <v>0</v>
       </c>
       <c r="D12" s="33">
-        <v>62456</v>
+        <v>59170</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3173,13 +3186,13 @@
         <v>44203</v>
       </c>
       <c r="B13" s="33">
-        <v>55898</v>
+        <v>58465</v>
       </c>
       <c r="C13" s="33">
         <v>0</v>
       </c>
       <c r="D13" s="33">
-        <v>55898</v>
+        <v>58465</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3187,13 +3200,13 @@
         <v>44204</v>
       </c>
       <c r="B14" s="33">
-        <v>62792</v>
+        <v>60447</v>
       </c>
       <c r="C14" s="33">
         <v>0</v>
       </c>
       <c r="D14" s="33">
-        <v>62792</v>
+        <v>60447</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3201,13 +3214,13 @@
         <v>44205</v>
       </c>
       <c r="B15" s="33">
-        <v>60961</v>
+        <v>57326</v>
       </c>
       <c r="C15" s="33">
         <v>0</v>
       </c>
       <c r="D15" s="33">
-        <v>60961</v>
+        <v>57326</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -3215,13 +3228,13 @@
         <v>44206</v>
       </c>
       <c r="B16" s="33">
-        <v>34099</v>
+        <v>33281</v>
       </c>
       <c r="C16" s="33">
         <v>0</v>
       </c>
       <c r="D16" s="33">
-        <v>34099</v>
+        <v>33281</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3229,13 +3242,13 @@
         <v>44207</v>
       </c>
       <c r="B17" s="33">
-        <v>65142</v>
+        <v>65668</v>
       </c>
       <c r="C17" s="33">
         <v>0</v>
       </c>
       <c r="D17" s="33">
-        <v>65142</v>
+        <v>65668</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3243,13 +3256,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="33">
-        <v>82433</v>
+        <v>82088</v>
       </c>
       <c r="C18" s="33">
         <v>0</v>
       </c>
       <c r="D18" s="33">
-        <v>82433</v>
+        <v>82088</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3257,13 +3270,13 @@
         <v>44209</v>
       </c>
       <c r="B19" s="33">
-        <v>109070</v>
+        <v>99087</v>
       </c>
       <c r="C19" s="33">
         <v>0</v>
       </c>
       <c r="D19" s="33">
-        <v>109070</v>
+        <v>99087</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3271,13 +3284,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="33">
-        <v>82188</v>
+        <v>100114</v>
       </c>
       <c r="C20" s="33">
         <v>114</v>
       </c>
       <c r="D20" s="33">
-        <v>82302</v>
+        <v>100228</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3285,13 +3298,13 @@
         <v>44211</v>
       </c>
       <c r="B21" s="33">
-        <v>88529</v>
+        <v>92397</v>
       </c>
       <c r="C21" s="33">
-        <v>596</v>
+        <v>428</v>
       </c>
       <c r="D21" s="33">
-        <v>89125</v>
+        <v>92825</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3299,13 +3312,13 @@
         <v>44212</v>
       </c>
       <c r="B22" s="33">
-        <v>56243</v>
+        <v>56708</v>
       </c>
       <c r="C22" s="33">
-        <v>503</v>
+        <v>397</v>
       </c>
       <c r="D22" s="33">
-        <v>56746</v>
+        <v>57105</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3313,13 +3326,13 @@
         <v>44213</v>
       </c>
       <c r="B23" s="33">
-        <v>29502</v>
+        <v>30899</v>
       </c>
       <c r="C23" s="33">
-        <v>15732</v>
+        <v>13612</v>
       </c>
       <c r="D23" s="33">
-        <v>45234</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -3327,13 +3340,13 @@
         <v>44214</v>
       </c>
       <c r="B24" s="33">
-        <v>64515</v>
+        <v>57986</v>
       </c>
       <c r="C24" s="33">
-        <v>15005</v>
+        <v>16372</v>
       </c>
       <c r="D24" s="33">
-        <v>79520</v>
+        <v>74358</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -3341,13 +3354,13 @@
         <v>44215</v>
       </c>
       <c r="B25" s="33">
-        <v>78061</v>
+        <v>68174</v>
       </c>
       <c r="C25" s="33">
-        <v>30582</v>
+        <v>27229</v>
       </c>
       <c r="D25" s="33">
-        <v>108643</v>
+        <v>95403</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3355,13 +3368,13 @@
         <v>44216</v>
       </c>
       <c r="B26" s="33">
-        <v>77746</v>
+        <v>78286</v>
       </c>
       <c r="C26" s="33">
-        <v>48483</v>
+        <v>50656</v>
       </c>
       <c r="D26" s="33">
-        <v>126229</v>
+        <v>128942</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -3369,13 +3382,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="33">
-        <v>62783</v>
+        <v>60698</v>
       </c>
       <c r="C27" s="33">
-        <v>37738</v>
+        <v>35435</v>
       </c>
       <c r="D27" s="33">
-        <v>100521</v>
+        <v>96133</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3383,13 +3396,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="33">
-        <v>66697</v>
+        <v>84246</v>
       </c>
       <c r="C28" s="33">
-        <v>33293</v>
+        <v>31288</v>
       </c>
       <c r="D28" s="33">
-        <v>99990</v>
+        <v>115534</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3397,13 +3410,13 @@
         <v>44219</v>
       </c>
       <c r="B29" s="33">
-        <v>40133</v>
+        <v>48969</v>
       </c>
       <c r="C29" s="33">
-        <v>44033</v>
+        <v>43950</v>
       </c>
       <c r="D29" s="33">
-        <v>84166</v>
+        <v>92919</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -3411,13 +3424,13 @@
         <v>44220</v>
       </c>
       <c r="B30" s="33">
-        <v>25607</v>
+        <v>38212</v>
       </c>
       <c r="C30" s="33">
-        <v>23736</v>
+        <v>28089</v>
       </c>
       <c r="D30" s="33">
-        <v>49343</v>
+        <v>66301</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3425,13 +3438,13 @@
         <v>44221</v>
       </c>
       <c r="B31" s="33">
-        <v>58105</v>
+        <v>58193</v>
       </c>
       <c r="C31" s="33">
-        <v>37971</v>
+        <v>39738</v>
       </c>
       <c r="D31" s="33">
-        <v>96076</v>
+        <v>97931</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3439,13 +3452,13 @@
         <v>44222</v>
       </c>
       <c r="B32" s="33">
-        <v>50430</v>
+        <v>53110</v>
       </c>
       <c r="C32" s="33">
-        <v>48466</v>
+        <v>49611</v>
       </c>
       <c r="D32" s="33">
-        <v>98896</v>
+        <v>102721</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3453,13 +3466,13 @@
         <v>44223</v>
       </c>
       <c r="B33" s="33">
-        <v>51791</v>
+        <v>54052</v>
       </c>
       <c r="C33" s="33">
-        <v>58695</v>
+        <v>59286</v>
       </c>
       <c r="D33" s="33">
-        <v>110486</v>
+        <v>113338</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3467,13 +3480,13 @@
         <v>44224</v>
       </c>
       <c r="B34" s="33">
-        <v>44823</v>
+        <v>51583</v>
       </c>
       <c r="C34" s="33">
-        <v>46212</v>
+        <v>49014</v>
       </c>
       <c r="D34" s="33">
-        <v>91035</v>
+        <v>100597</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3481,13 +3494,13 @@
         <v>44225</v>
       </c>
       <c r="B35" s="33">
-        <v>50989</v>
+        <v>55982</v>
       </c>
       <c r="C35" s="33">
-        <v>55001</v>
+        <v>53759</v>
       </c>
       <c r="D35" s="33">
-        <v>105990</v>
+        <v>109741</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3495,13 +3508,13 @@
         <v>44226</v>
       </c>
       <c r="B36" s="33">
-        <v>34702</v>
+        <v>39592</v>
       </c>
       <c r="C36" s="33">
-        <v>48721</v>
+        <v>48588</v>
       </c>
       <c r="D36" s="33">
-        <v>83423</v>
+        <v>88180</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3509,13 +3522,13 @@
         <v>44227</v>
       </c>
       <c r="B37" s="33">
-        <v>26030</v>
+        <v>31326</v>
       </c>
       <c r="C37" s="33">
-        <v>28995</v>
+        <v>31380</v>
       </c>
       <c r="D37" s="33">
-        <v>55025</v>
+        <v>62706</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3523,13 +3536,13 @@
         <v>44228</v>
       </c>
       <c r="B38" s="33">
-        <v>56983</v>
+        <v>50094</v>
       </c>
       <c r="C38" s="33">
-        <v>60600</v>
+        <v>65862</v>
       </c>
       <c r="D38" s="33">
-        <v>117583</v>
+        <v>115956</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3537,13 +3550,13 @@
         <v>44229</v>
       </c>
       <c r="B39" s="33">
-        <v>61006</v>
+        <v>57930</v>
       </c>
       <c r="C39" s="33">
-        <v>64600</v>
+        <v>69749</v>
       </c>
       <c r="D39" s="33">
-        <v>125606</v>
+        <v>127679</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3551,13 +3564,13 @@
         <v>44230</v>
       </c>
       <c r="B40" s="33">
-        <v>62262</v>
+        <v>57963</v>
       </c>
       <c r="C40" s="33">
-        <v>87359</v>
+        <v>84655</v>
       </c>
       <c r="D40" s="33">
-        <v>149621</v>
+        <v>142618</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -3565,13 +3578,13 @@
         <v>44231</v>
       </c>
       <c r="B41" s="33">
-        <v>57755</v>
+        <v>63142</v>
       </c>
       <c r="C41" s="33">
-        <v>66849</v>
+        <v>72640</v>
       </c>
       <c r="D41" s="33">
-        <v>124604</v>
+        <v>135782</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3579,13 +3592,13 @@
         <v>44232</v>
       </c>
       <c r="B42" s="33">
-        <v>62099</v>
+        <v>59739</v>
       </c>
       <c r="C42" s="33">
-        <v>70449</v>
+        <v>73707</v>
       </c>
       <c r="D42" s="33">
-        <v>132548</v>
+        <v>133446</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -3593,13 +3606,13 @@
         <v>44233</v>
       </c>
       <c r="B43" s="33">
-        <v>43460</v>
+        <v>48595</v>
       </c>
       <c r="C43" s="33">
-        <v>48589</v>
+        <v>55159</v>
       </c>
       <c r="D43" s="33">
-        <v>92049</v>
+        <v>103754</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3607,13 +3620,13 @@
         <v>44234</v>
       </c>
       <c r="B44" s="33">
-        <v>26981</v>
+        <v>32873</v>
       </c>
       <c r="C44" s="33">
-        <v>23601</v>
+        <v>26517</v>
       </c>
       <c r="D44" s="33">
-        <v>50582</v>
+        <v>59390</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3621,13 +3634,13 @@
         <v>44235</v>
       </c>
       <c r="B45" s="33">
-        <v>52996</v>
+        <v>54802</v>
       </c>
       <c r="C45" s="33">
-        <v>53951</v>
+        <v>51617</v>
       </c>
       <c r="D45" s="33">
-        <v>106947</v>
+        <v>106419</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -3635,13 +3648,13 @@
         <v>44236</v>
       </c>
       <c r="B46" s="33">
-        <v>58407</v>
+        <v>59648</v>
       </c>
       <c r="C46" s="33">
-        <v>68473</v>
+        <v>65081</v>
       </c>
       <c r="D46" s="33">
-        <v>126880</v>
+        <v>124729</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -3649,13 +3662,13 @@
         <v>44237</v>
       </c>
       <c r="B47" s="33">
-        <v>71790</v>
+        <v>75273</v>
       </c>
       <c r="C47" s="33">
-        <v>69902</v>
+        <v>74922</v>
       </c>
       <c r="D47" s="33">
-        <v>141692</v>
+        <v>150195</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3663,13 +3676,13 @@
         <v>44238</v>
       </c>
       <c r="B48" s="33">
-        <v>72616</v>
+        <v>71451</v>
       </c>
       <c r="C48" s="33">
-        <v>67041</v>
+        <v>72440</v>
       </c>
       <c r="D48" s="33">
-        <v>139657</v>
+        <v>143891</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3677,13 +3690,13 @@
         <v>44239</v>
       </c>
       <c r="B49" s="33">
-        <v>78677</v>
+        <v>80088</v>
       </c>
       <c r="C49" s="33">
-        <v>74414</v>
+        <v>78357</v>
       </c>
       <c r="D49" s="33">
-        <v>153091</v>
+        <v>158445</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3691,13 +3704,13 @@
         <v>44240</v>
       </c>
       <c r="B50" s="33">
-        <v>61120</v>
+        <v>63263</v>
       </c>
       <c r="C50" s="33">
-        <v>45030</v>
+        <v>46644</v>
       </c>
       <c r="D50" s="33">
-        <v>106150</v>
+        <v>109907</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3705,13 +3718,13 @@
         <v>44241</v>
       </c>
       <c r="B51" s="33">
-        <v>39585</v>
+        <v>39774</v>
       </c>
       <c r="C51" s="33">
-        <v>25346</v>
+        <v>26982</v>
       </c>
       <c r="D51" s="33">
-        <v>64931</v>
+        <v>66756</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3719,13 +3732,13 @@
         <v>44242</v>
       </c>
       <c r="B52" s="33">
-        <v>69536</v>
+        <v>70779</v>
       </c>
       <c r="C52" s="33">
-        <v>55230</v>
+        <v>56021</v>
       </c>
       <c r="D52" s="33">
-        <v>124766</v>
+        <v>126800</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3733,13 +3746,13 @@
         <v>44243</v>
       </c>
       <c r="B53" s="33">
-        <v>80410</v>
+        <v>81516</v>
       </c>
       <c r="C53" s="33">
-        <v>53166</v>
+        <v>54755</v>
       </c>
       <c r="D53" s="33">
-        <v>133576</v>
+        <v>136271</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3747,13 +3760,13 @@
         <v>44244</v>
       </c>
       <c r="B54" s="33">
-        <v>92648</v>
+        <v>94511</v>
       </c>
       <c r="C54" s="33">
-        <v>54484</v>
+        <v>54646</v>
       </c>
       <c r="D54" s="33">
-        <v>147132</v>
+        <v>149157</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3761,13 +3774,13 @@
         <v>44245</v>
       </c>
       <c r="B55" s="33">
-        <v>91075</v>
+        <v>93347</v>
       </c>
       <c r="C55" s="33">
-        <v>50230</v>
+        <v>52045</v>
       </c>
       <c r="D55" s="33">
-        <v>141305</v>
+        <v>145392</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3775,13 +3788,13 @@
         <v>44246</v>
       </c>
       <c r="B56" s="33">
-        <v>96988</v>
+        <v>96861</v>
       </c>
       <c r="C56" s="33">
-        <v>52627</v>
+        <v>53497</v>
       </c>
       <c r="D56" s="33">
-        <v>149615</v>
+        <v>150358</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3789,13 +3802,13 @@
         <v>44247</v>
       </c>
       <c r="B57" s="33">
-        <v>75482</v>
+        <v>74925</v>
       </c>
       <c r="C57" s="33">
-        <v>37361</v>
+        <v>37662</v>
       </c>
       <c r="D57" s="33">
-        <v>112843</v>
+        <v>112587</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3803,13 +3816,13 @@
         <v>44248</v>
       </c>
       <c r="B58" s="33">
-        <v>56763</v>
+        <v>56636</v>
       </c>
       <c r="C58" s="33">
-        <v>28408</v>
+        <v>28939</v>
       </c>
       <c r="D58" s="33">
-        <v>85171</v>
+        <v>85575</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3817,13 +3830,13 @@
         <v>44249</v>
       </c>
       <c r="B59" s="33">
-        <v>98241</v>
+        <v>99008</v>
       </c>
       <c r="C59" s="33">
-        <v>59268</v>
+        <v>52976</v>
       </c>
       <c r="D59" s="33">
-        <v>157509</v>
+        <v>151984</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3831,13 +3844,13 @@
         <v>44250</v>
       </c>
       <c r="B60" s="33">
-        <v>104143</v>
+        <v>104008</v>
       </c>
       <c r="C60" s="33">
-        <v>56814</v>
+        <v>55640</v>
       </c>
       <c r="D60" s="33">
-        <v>160957</v>
+        <v>159648</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3845,13 +3858,13 @@
         <v>44251</v>
       </c>
       <c r="B61" s="33">
-        <v>116126</v>
+        <v>116539</v>
       </c>
       <c r="C61" s="33">
-        <v>57193</v>
+        <v>57936</v>
       </c>
       <c r="D61" s="33">
-        <v>173319</v>
+        <v>174475</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3859,13 +3872,13 @@
         <v>44252</v>
       </c>
       <c r="B62" s="33">
-        <v>127397</v>
+        <v>127064</v>
       </c>
       <c r="C62" s="33">
-        <v>54326</v>
+        <v>52364</v>
       </c>
       <c r="D62" s="33">
-        <v>181723</v>
+        <v>179428</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3873,13 +3886,13 @@
         <v>44253</v>
       </c>
       <c r="B63" s="33">
-        <v>139294</v>
+        <v>135976</v>
       </c>
       <c r="C63" s="33">
-        <v>60258</v>
+        <v>58667</v>
       </c>
       <c r="D63" s="33">
-        <v>199552</v>
+        <v>194643</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3887,13 +3900,13 @@
         <v>44254</v>
       </c>
       <c r="B64" s="33">
-        <v>108140</v>
+        <v>107584</v>
       </c>
       <c r="C64" s="33">
-        <v>38213</v>
+        <v>38763</v>
       </c>
       <c r="D64" s="33">
-        <v>146353</v>
+        <v>146347</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3901,13 +3914,13 @@
         <v>44255</v>
       </c>
       <c r="B65" s="33">
-        <v>84441</v>
+        <v>85652</v>
       </c>
       <c r="C65" s="33">
-        <v>23908</v>
+        <v>27932</v>
       </c>
       <c r="D65" s="33">
-        <v>108349</v>
+        <v>113584</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3915,13 +3928,13 @@
         <v>44256</v>
       </c>
       <c r="B66" s="33">
-        <v>141384</v>
+        <v>140571</v>
       </c>
       <c r="C66" s="33">
-        <v>48265</v>
+        <v>50255</v>
       </c>
       <c r="D66" s="33">
-        <v>189649</v>
+        <v>190826</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3929,13 +3942,13 @@
         <v>44257</v>
       </c>
       <c r="B67" s="33">
-        <v>158777</v>
+        <v>158615</v>
       </c>
       <c r="C67" s="33">
-        <v>52355</v>
+        <v>55657</v>
       </c>
       <c r="D67" s="33">
-        <v>211132</v>
+        <v>214272</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3943,13 +3956,13 @@
         <v>44258</v>
       </c>
       <c r="B68" s="33">
-        <v>168109</v>
+        <v>172178</v>
       </c>
       <c r="C68" s="33">
-        <v>65884</v>
+        <v>67189</v>
       </c>
       <c r="D68" s="33">
-        <v>233993</v>
+        <v>239367</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3957,13 +3970,13 @@
         <v>44259</v>
       </c>
       <c r="B69" s="33">
-        <v>172969</v>
+        <v>175135</v>
       </c>
       <c r="C69" s="33">
-        <v>60111</v>
+        <v>61767</v>
       </c>
       <c r="D69" s="33">
-        <v>233080</v>
+        <v>236902</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3971,13 +3984,13 @@
         <v>44260</v>
       </c>
       <c r="B70" s="33">
-        <v>188187</v>
+        <v>184164</v>
       </c>
       <c r="C70" s="33">
-        <v>64879</v>
+        <v>63186</v>
       </c>
       <c r="D70" s="33">
-        <v>253066</v>
+        <v>247350</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3985,13 +3998,13 @@
         <v>44261</v>
       </c>
       <c r="B71" s="33">
-        <v>148985</v>
+        <v>144936</v>
       </c>
       <c r="C71" s="33">
-        <v>48053</v>
+        <v>47131</v>
       </c>
       <c r="D71" s="33">
-        <v>197038</v>
+        <v>192067</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3999,13 +4012,13 @@
         <v>44262</v>
       </c>
       <c r="B72" s="33">
-        <v>114893</v>
+        <v>112991</v>
       </c>
       <c r="C72" s="33">
-        <v>34600.5</v>
+        <v>34265.5</v>
       </c>
       <c r="D72" s="33">
-        <v>149493.5</v>
+        <v>147256.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -4013,13 +4026,13 @@
         <v>44263</v>
       </c>
       <c r="B73" s="54">
-        <v>178973</v>
+        <v>176692</v>
       </c>
       <c r="C73" s="54">
-        <v>51629.5</v>
+        <v>53095.5</v>
       </c>
       <c r="D73" s="54">
-        <v>230602.5</v>
+        <v>229787.5</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -4027,13 +4040,13 @@
         <v>44264</v>
       </c>
       <c r="B74" s="54">
-        <v>185607</v>
+        <v>189562</v>
       </c>
       <c r="C74" s="54">
-        <v>53571</v>
+        <v>54962</v>
       </c>
       <c r="D74" s="54">
-        <v>239178</v>
+        <v>244524</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -4041,13 +4054,13 @@
         <v>44265</v>
       </c>
       <c r="B75" s="54">
-        <v>204221</v>
+        <v>204928</v>
       </c>
       <c r="C75" s="54">
-        <v>63544</v>
+        <v>66591</v>
       </c>
       <c r="D75" s="54">
-        <v>267765</v>
+        <v>271519</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -4055,13 +4068,13 @@
         <v>44266</v>
       </c>
       <c r="B76" s="54">
-        <v>210145</v>
+        <v>217686</v>
       </c>
       <c r="C76" s="54">
-        <v>59587</v>
+        <v>62169</v>
       </c>
       <c r="D76" s="54">
-        <v>269732</v>
+        <v>279855</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -4069,26 +4082,42 @@
         <v>44267</v>
       </c>
       <c r="B77" s="54">
-        <v>190387</v>
+        <v>203891</v>
       </c>
       <c r="C77" s="54">
-        <v>65741</v>
+        <v>67671</v>
       </c>
       <c r="D77" s="54">
-        <v>256128</v>
+        <v>271562</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="55"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
+      <c r="A78" s="38">
+        <v>44268</v>
+      </c>
+      <c r="B78" s="54">
+        <v>177920</v>
+      </c>
+      <c r="C78" s="54">
+        <v>47794</v>
+      </c>
+      <c r="D78" s="54">
+        <v>225714</v>
+      </c>
     </row>
     <row r="79" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="55"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
+      <c r="A79" s="38">
+        <v>44269</v>
+      </c>
+      <c r="B79" s="54">
+        <v>128148</v>
+      </c>
+      <c r="C79" s="54">
+        <v>35097</v>
+      </c>
+      <c r="D79" s="54">
+        <v>163245</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="55"/>
@@ -4102,15 +4131,15 @@
       </c>
       <c r="B81" s="33">
         <f>SUM(B2:B80)</f>
-        <v>6113484</v>
+        <v>6507159</v>
       </c>
       <c r="C81" s="33">
         <f>SUM(C2:C80)</f>
-        <v>2749786</v>
+        <v>2891951</v>
       </c>
       <c r="D81" s="33">
         <f>SUM(D2:D80)</f>
-        <v>8863270</v>
+        <v>9399110</v>
       </c>
     </row>
   </sheetData>
